--- a/Dot Net 8 + React SelfStudy.xlsx
+++ b/Dot Net 8 + React SelfStudy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,9 @@
 The course contains fourteen parts. One part approx one week (averaging 15-20 hours) of studying.
 Basic Parts are from 0-1-2-3-4-5 (so probably 6-8 weeks)</t>
     </r>
+  </si>
+  <si>
+    <t>* Github: Create repo, create branch, commit staging area, push origin/branch, create pull request, merge pull request</t>
   </si>
 </sst>
 </file>
@@ -164,14 +167,8 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -195,6 +192,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,6 +325,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -337,23 +357,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -366,7 +369,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A4:G24"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="6"/>
@@ -668,108 +671,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="59.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="87" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="15.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="87" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="75.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>45496</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>2.5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>45496</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
